--- a/teaching/traditional_assets/database/data/barbados/barbados_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/barbados/barbados_bank_money_center.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05139999999999999</v>
+        <v>-0.0307</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,28 +606,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>166</v>
+        <v>-159.1</v>
       </c>
       <c r="L2">
-        <v>0.399903637677668</v>
+        <v>-0.3867282450170151</v>
       </c>
       <c r="M2">
-        <v>78.855</v>
+        <v>128.6</v>
       </c>
       <c r="N2">
-        <v>0.04237010370211166</v>
+        <v>0.07823336172283733</v>
       </c>
       <c r="O2">
-        <v>0.4750301204819277</v>
+        <v>-0.8082966687617851</v>
       </c>
       <c r="P2">
-        <v>78.855</v>
+        <v>128.6</v>
       </c>
       <c r="Q2">
-        <v>0.04237010370211166</v>
+        <v>0.07823336172283733</v>
       </c>
       <c r="R2">
-        <v>0.4750301204819277</v>
+        <v>-0.8082966687617851</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1888.6</v>
+        <v>1917.1</v>
       </c>
       <c r="V2">
-        <v>1.01477620761915</v>
+        <v>1.166261102323884</v>
       </c>
       <c r="W2">
-        <v>0.1475555555555556</v>
+        <v>-0.1297822008320418</v>
       </c>
       <c r="X2">
-        <v>0.07210945158310544</v>
+        <v>0.06921934836785093</v>
       </c>
       <c r="Y2">
-        <v>0.07544610397245011</v>
+        <v>-0.1990015491998927</v>
       </c>
       <c r="Z2">
-        <v>-0.618444576877235</v>
+        <v>-0.5273682861171645</v>
       </c>
       <c r="AA2">
         <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.07316971995858096</v>
+        <v>0.07017433399895806</v>
       </c>
       <c r="AC2">
-        <v>-0.07316971995858096</v>
+        <v>-0.07017433399895806</v>
       </c>
       <c r="AD2">
-        <v>89.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>89.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AG2">
-        <v>-1798.8</v>
+        <v>-1841.5</v>
       </c>
       <c r="AH2">
-        <v>0.0460300374186273</v>
+        <v>0.04396882633476795</v>
       </c>
       <c r="AI2">
-        <v>0.06667656667656667</v>
+        <v>0.06972240154938669</v>
       </c>
       <c r="AJ2">
-        <v>-28.87319422150885</v>
+        <v>9.314618108244813</v>
       </c>
       <c r="AK2">
-        <v>3.320044296788483</v>
+        <v>2.211215177713737</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.05139999999999999</v>
+        <v>-0.0307</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,28 +725,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>166</v>
+        <v>-159.1</v>
       </c>
       <c r="L3">
-        <v>0.399903637677668</v>
+        <v>-0.3867282450170151</v>
       </c>
       <c r="M3">
-        <v>78.855</v>
+        <v>128.6</v>
       </c>
       <c r="N3">
-        <v>0.04237010370211166</v>
+        <v>0.07823336172283733</v>
       </c>
       <c r="O3">
-        <v>0.4750301204819277</v>
+        <v>-0.8082966687617851</v>
       </c>
       <c r="P3">
-        <v>78.855</v>
+        <v>128.6</v>
       </c>
       <c r="Q3">
-        <v>0.04237010370211166</v>
+        <v>0.07823336172283733</v>
       </c>
       <c r="R3">
-        <v>0.4750301204819277</v>
+        <v>-0.8082966687617851</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1888.6</v>
+        <v>1917.1</v>
       </c>
       <c r="V3">
-        <v>1.01477620761915</v>
+        <v>1.166261102323884</v>
       </c>
       <c r="W3">
-        <v>0.1475555555555556</v>
+        <v>-0.1297822008320418</v>
       </c>
       <c r="X3">
-        <v>0.07210945158310544</v>
+        <v>0.06921934836785093</v>
       </c>
       <c r="Y3">
-        <v>0.07544610397245011</v>
+        <v>-0.1990015491998927</v>
       </c>
       <c r="Z3">
-        <v>-0.618444576877235</v>
+        <v>-0.5273682861171645</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.07316971995858096</v>
+        <v>0.07017433399895806</v>
       </c>
       <c r="AC3">
-        <v>-0.07316971995858096</v>
+        <v>-0.07017433399895806</v>
       </c>
       <c r="AD3">
-        <v>89.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>89.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AG3">
-        <v>-1798.8</v>
+        <v>-1841.5</v>
       </c>
       <c r="AH3">
-        <v>0.0460300374186273</v>
+        <v>0.04396882633476795</v>
       </c>
       <c r="AI3">
-        <v>0.06667656667656667</v>
+        <v>0.06972240154938669</v>
       </c>
       <c r="AJ3">
-        <v>-28.87319422150885</v>
+        <v>9.314618108244813</v>
       </c>
       <c r="AK3">
-        <v>3.320044296788483</v>
+        <v>2.211215177713737</v>
       </c>
       <c r="AL3">
         <v>0</v>
